--- a/Images/11_RACI.xlsx
+++ b/Images/11_RACI.xlsx
@@ -364,8 +364,8 @@
   </sheetPr>
   <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -571,13 +571,13 @@
         <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>29</v>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>26</v>
@@ -766,7 +766,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>28</v>
@@ -829,7 +829,7 @@
         <v>28</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>26</v>
@@ -882,8 +882,8 @@
       <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>28</v>
+      <c r="C19" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>27</v>
@@ -907,10 +907,10 @@
         <v>29</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>26</v>
